--- a/Documentação/Planilhas/Planilha de Requisitos Atualizada - SixSolutions (Sprint 2).xlsx
+++ b/Documentação/Planilhas/Planilha de Requisitos Atualizada - SixSolutions (Sprint 2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\sixsolution\Sixsolution-project\Documentação\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B32141-7AFC-4275-8D67-B06F04DD0667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D8141-75C7-4795-8593-E310E3F97B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17B792A4-C0E8-4189-901C-A44B5E8E2A1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Data da Sprint</t>
   </si>
@@ -166,6 +166,30 @@
   <si>
     <t>Será feito, estudado e 
 realizado por todos.</t>
+  </si>
+  <si>
+    <t>Site Institucional na Nuvem
+Cadastro, Login e Dashboard na Nuvem,                               conectado com BD                                                                                                     Mapeamento das tabelas (entidades) em classes Javascript</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento do Suporte
+Ferramenta de Help Desk configurada e integrada à solução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                          Modelagem Lógica (Final)
+Script de criação do Banco (Final)
+Tabelas criadas no Azure (Final)
+</t>
+  </si>
+  <si>
+    <t>Teste Integrado do Analytics
+Teste Integrado da Solução de IoT                                         (Simulador + Banco de Dados)</t>
+  </si>
+  <si>
+    <t>Manual de Instalação
+ Doc. Final do Projeto
+ PPT da Apresentação do Projeto
+ Prévia (Demonstração da Solução + Apresentação)</t>
   </si>
 </sst>
 </file>
@@ -279,34 +303,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9A55D-4EA2-4178-84B5-CC0AAF6B2715}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,59 +679,59 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>44308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>44308</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -719,7 +743,7 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>44308</v>
       </c>
     </row>
@@ -727,7 +751,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -739,7 +763,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>44308</v>
       </c>
     </row>
@@ -747,13 +771,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -762,27 +786,202 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>44308</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="40">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A6:A8"/>
@@ -790,19 +989,8 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Planilhas/Planilha de Requisitos Atualizada - SixSolutions (Sprint 2).xlsx
+++ b/Documentação/Planilhas/Planilha de Requisitos Atualizada - SixSolutions (Sprint 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\sixsolution\Sixsolution-project\Documentação\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D8141-75C7-4795-8593-E310E3F97B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75006F3-410F-44C2-96F8-91B05CE8A4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17B792A4-C0E8-4189-901C-A44B5E8E2A1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>Data da Sprint</t>
   </si>
@@ -49,6 +49,80 @@
   </si>
   <si>
     <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Projetos atualizados no GitHub / Documentação do 
+projeto atualizada.
+Planilha de Riscos do Projeto.</t>
+  </si>
+  <si>
+    <t>Ferramenta de Gestão de Projeto funcionando.
+HLD do Projeto / LLD do Projeto.
+Planilha de BackLog / Planilha de Sprints</t>
+  </si>
+  <si>
+    <t>Encarregado</t>
+  </si>
+  <si>
+    <t>Será feito, estudado e 
+realizado por todos.</t>
+  </si>
+  <si>
+    <t>Projeto Criado e configurado no GitHub.                   Documento de contexto de négocio.                      Documento de Justificativa do Projeto.                       Desenho de solução - Diagrama.</t>
+  </si>
+  <si>
+    <t>Prototipo do site institucional.                                                 Tela de simulador financeiro.</t>
+  </si>
+  <si>
+    <t>Planilha de Requisitos e Backlog do Projeto.</t>
+  </si>
+  <si>
+    <t>Preparar Arduino/Simulador.                                                       Executar Código Arduino/ Simulador.                                      Escolher e testar o sensor no simulador.</t>
+  </si>
+  <si>
+    <t>Tabelas Criadas no MySQL - Protótipo.                                    Execução de Script de inserção de registros.                                                             Execução de Script de consulta de Dados</t>
+  </si>
+  <si>
+    <t>Ordem de Execução</t>
+  </si>
+  <si>
+    <t>Será feito conforme aprendido em aula.</t>
+  </si>
+  <si>
+    <t>Será feito conforme                               aprendido em aula.</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Site Institucional na Nuvem
+Cadastro, Login e Dashboard na Nuvem,                               conectado com BD                                                                                                     Mapeamento das tabelas (entidades) em classes Javascript.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                         Teste Integrado do Analytics
+Teste Integrado da Solução de IoT                                         (Simulador + Banco de Dados).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                          Modelagem Lógica (Final).
+Script de criação do Banco (Final).
+Tabelas criadas no Azure (Final).
+</t>
+  </si>
+  <si>
+    <t>Manual de Instalação.
+ Doc. Final do Projeto.
+ PPT da Apresentação do Projeto.
+ Prévia (Demonstração da Solução + Apresentação).</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento do Suporte.
+Ferramenta de Help Desk configurada e integrada à solução.</t>
   </si>
   <si>
     <r>
@@ -57,21 +131,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>gráfico com ChartJS</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>).
 Site estático - Cadastro e Login.</t>
@@ -83,21 +155,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>sensor virtual/gráficos</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.
 Diagrama de Arquitetura Local.
@@ -110,93 +180,48 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>lógica</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> do projeto v1.
 Script de criação do Banco /</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Tabelas criadas em BD Local</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Projetos atualizados no GitHub / Documentação do 
-projeto atualizada.
-Planilha de Riscos do Projeto.</t>
-  </si>
-  <si>
-    <t>Ferramenta de Gestão de Projeto funcionando.
-HLD do Projeto / LLD do Projeto.
-Planilha de BackLog / Planilha de Sprints</t>
-  </si>
-  <si>
-    <t>Encarregado</t>
-  </si>
-  <si>
-    <t>Será feito, estudado e 
-realizado por todos.</t>
-  </si>
-  <si>
-    <t>Site Institucional na Nuvem
-Cadastro, Login e Dashboard na Nuvem,                               conectado com BD                                                                                                     Mapeamento das tabelas (entidades) em classes Javascript</t>
-  </si>
-  <si>
-    <t>Fluxograma do Processo de Atendimento do Suporte
-Ferramenta de Help Desk configurada e integrada à solução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                          Modelagem Lógica (Final)
-Script de criação do Banco (Final)
-Tabelas criadas no Azure (Final)
-</t>
-  </si>
-  <si>
-    <t>Teste Integrado do Analytics
-Teste Integrado da Solução de IoT                                         (Simulador + Banco de Dados)</t>
-  </si>
-  <si>
-    <t>Manual de Instalação
- Doc. Final do Projeto
- PPT da Apresentação do Projeto
- Prévia (Demonstração da Solução + Apresentação)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,19 +230,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,47 +328,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,350 +694,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9A55D-4EA2-4178-84B5-CC0AAF6B2715}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="9">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="9">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="9">
         <v>44308</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="9">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9">
-        <v>44308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9">
-        <v>44308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="9">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9">
-        <v>44308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="9">
         <v>44357</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9">
-        <v>44357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="9">
-        <v>44357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9">
-        <v>44357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="9">
-        <v>44357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="78">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
